--- a/views/logs/transactions.xlsx
+++ b/views/logs/transactions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Transaction ID</t>
   </si>
@@ -28,58 +28,22 @@
     <t>Date</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2023-03-16 16:19:28.742101</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>599.0</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>350.0</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>2023-03-16 22:09:46.861114</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>300.0</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5600.0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>55.2</t>
-  </si>
-  <si>
-    <t>2023-03-16 22:10:23.995498</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>600.0</t>
-  </si>
-  <si>
-    <t>2023-03-17 10:00:01.249692</t>
+    <t>2023-03-28 09:25:26.490222</t>
+  </si>
+  <si>
+    <t>I want to test this I guess</t>
   </si>
 </sst>
 </file>
@@ -411,13 +375,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,89 +394,25 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
